--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19724.08314122841</v>
+        <v>-22245.58773174764</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.9696465295809</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>173.6423490896797</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>104.1257568962226</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>112.1806978940278</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>148.3225113504052</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>125.5876935512608</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>346.0081173223331</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>75.63468757089922</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1072,7 +1072,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>90.35553756853416</v>
+        <v>55.97499419142652</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>208.5689900105812</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>42.34070507092699</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>184.3286304149956</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>59.2420028561579</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T13" t="n">
-        <v>35.99871774582589</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890387</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758761</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>59.66990246485164</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>125.8135405258567</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>219.2450387532285</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>25.2632269748843</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>125.2474982886096</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>106.207802455916</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>99.72336853883903</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2719,10 +2719,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,19 +2767,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.383131826302</v>
       </c>
       <c r="X28" t="n">
-        <v>157.1838954824118</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>4.974488840438626</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>32.84316668127778</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,22 +3235,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V34" t="n">
-        <v>79.9081607862897</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>129.7194509233178</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.8518831495024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>256.2398482740273</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>9.795251606876494</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>108.6115798077505</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>105.9742079424025</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>661.9792648843242</v>
+        <v>897.568857462134</v>
       </c>
       <c r="C2" t="n">
-        <v>293.0167479439124</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="D2" t="n">
-        <v>293.0167479439124</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="E2" t="n">
-        <v>293.0167479439124</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F2" t="n">
-        <v>293.0167479439124</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4361,19 +4361,19 @@
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2123.716947314043</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1770.948292043929</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1397.482533782849</v>
       </c>
       <c r="Y2" t="n">
-        <v>901.3425442071332</v>
+        <v>1284.168697526256</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4413,22 +4413,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.0883979303312</v>
+        <v>1718.773326732726</v>
       </c>
       <c r="C4" t="n">
-        <v>325.0883979303312</v>
+        <v>1549.837143804819</v>
       </c>
       <c r="D4" t="n">
-        <v>325.0883979303312</v>
+        <v>1399.720504392484</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>1399.720504392484</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>1399.720504392484</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>2412.518609864393</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>2189.540129059128</v>
       </c>
       <c r="U4" t="n">
-        <v>1089.982635316709</v>
+        <v>1900.421791562966</v>
       </c>
       <c r="V4" t="n">
-        <v>835.2981471108219</v>
+        <v>1900.421791562966</v>
       </c>
       <c r="W4" t="n">
-        <v>545.8809770738613</v>
+        <v>1900.421791562966</v>
       </c>
       <c r="X4" t="n">
-        <v>545.8809770738613</v>
+        <v>1900.421791562966</v>
       </c>
       <c r="Y4" t="n">
-        <v>325.0883979303312</v>
+        <v>1900.421791562966</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1545.153177427444</v>
+        <v>1200.95620828083</v>
       </c>
       <c r="C5" t="n">
-        <v>1545.153177427444</v>
+        <v>1200.95620828083</v>
       </c>
       <c r="D5" t="n">
-        <v>1186.887478820693</v>
+        <v>842.69050967408</v>
       </c>
       <c r="E5" t="n">
-        <v>1186.887478820693</v>
+        <v>842.69050967408</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>431.7046048844724</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4601,16 +4601,16 @@
         <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.758267664335</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X5" t="n">
-        <v>1935.292509403255</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y5" t="n">
-        <v>1545.153177427444</v>
+        <v>1587.556048344952</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4638,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
@@ -4650,22 +4650,22 @@
         <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770.8338829770711</v>
+        <v>684.8214259065184</v>
       </c>
       <c r="C7" t="n">
-        <v>770.8338829770711</v>
+        <v>515.8852429786115</v>
       </c>
       <c r="D7" t="n">
-        <v>620.7172435647353</v>
+        <v>515.8852429786115</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1219.616013018619</v>
+        <v>1160.298493255935</v>
       </c>
       <c r="V7" t="n">
-        <v>1219.616013018619</v>
+        <v>905.6140050500485</v>
       </c>
       <c r="W7" t="n">
-        <v>1219.616013018619</v>
+        <v>905.6140050500485</v>
       </c>
       <c r="X7" t="n">
-        <v>991.6264621206012</v>
+        <v>905.6140050500485</v>
       </c>
       <c r="Y7" t="n">
-        <v>770.8338829770711</v>
+        <v>684.8214259065184</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2144.883770458458</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X8" t="n">
-        <v>2531.48361052258</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y8" t="n">
-        <v>2531.48361052258</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.570363233848</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="C10" t="n">
-        <v>629.570363233848</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D10" t="n">
-        <v>479.4537238215122</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1549.418128142596</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1549.418128142596</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1549.418128142596</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W10" t="n">
-        <v>1260.000958105635</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X10" t="n">
-        <v>1032.011407207618</v>
+        <v>1067.16748882129</v>
       </c>
       <c r="Y10" t="n">
-        <v>811.2188280640877</v>
+        <v>846.3749096777597</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,34 +5051,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5133,13 +5133,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.700204330167</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.624977674365</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674365</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637405</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565526</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>991.7436897307817</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>822.8075068028749</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>672.6908673905391</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>524.777773808146</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>377.8878263102356</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1394.184733704551</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1173.392154561021</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5507,34 +5507,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1815.886107649656</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>915.1035305473698</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487569</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831767</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.30283062588</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588919</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X22" t="n">
-        <v>1237.37303605497</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.58045691144</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2223.769289033212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171301</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>733.4550657171301</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253735</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>139.234765840794</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>985.5125840134626</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D31" t="n">
-        <v>415.5933575433587</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E31" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>268.7034100454483</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,25 +6780,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1366.386875345992</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V34" t="n">
-        <v>1790.525374274257</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>1501.108204237296</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075817</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6959,25 +6959,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2315.933335172869</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2096.33187019581</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1807.256643540008</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X37" t="n">
-        <v>1433.701365648819</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>814.372855255613</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7163,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>726.955532171245</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>558.0193492433381</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1357.386127043032</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1129.396576145015</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.6039970014847</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>417.7969033733018</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>270.9069558753914</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>103.7108565902714</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>103.7108565902714</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>874.8686257536381</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263527</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8061,25 +8061,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>294.8344935184735</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.454437538930335</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.9393975111056</v>
+        <v>114.3555089013348</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>237.9053536832743</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>274.0572407620258</v>
       </c>
     </row>
     <row r="3">
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856421</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T13" t="n">
-        <v>181.4067325814624</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>105.8542358274172</v>
+        <v>165.5241382922704</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>41.43328057277111</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>32.8926045705995</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>226.8744163489437</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>100.4621571004276</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>73.62417772602126</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>48.89210447937333</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>145.139866510289</v>
       </c>
       <c r="X28" t="n">
-        <v>68.52575990662532</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>141.4594738061305</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>132.6809716109911</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25123,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V34" t="n">
-        <v>172.2294825375383</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>51.3068350783268</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.73277020259238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,19 +25597,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>29.94462611521686</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>71.47058471168903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>177.5728945814937</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>112.6104454096923</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794696</v>
+        <v>298593.7657794695</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="E2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="G2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="H2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="I2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="K2" t="n">
         <v>322858.6398760025</v>
       </c>
-      <c r="K2" t="n">
-        <v>322858.6398760026</v>
-      </c>
       <c r="L2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
         <v>322858.6398760024</v>
@@ -26350,10 +26350,10 @@
         <v>322858.6398760024</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551206</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92967.25326431796</v>
+        <v>92967.25326431787</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309565</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="F4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="F4" t="n">
-        <v>8727.256391744282</v>
-      </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744284</v>
@@ -26439,22 +26439,22 @@
         <v>8727.256391744297</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744264</v>
       </c>
       <c r="N4" t="n">
+        <v>8727.256391744257</v>
+      </c>
+      <c r="O4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744308</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1002063.043500612</v>
+        <v>-1002249.436889151</v>
       </c>
       <c r="C6" t="n">
-        <v>99956.79852888556</v>
+        <v>99956.79852888564</v>
       </c>
       <c r="D6" t="n">
-        <v>-60058.6642191131</v>
+        <v>-60058.66421911362</v>
       </c>
       <c r="E6" t="n">
-        <v>-112403.6081470044</v>
+        <v>-112438.3460724399</v>
       </c>
       <c r="F6" t="n">
-        <v>213008.853660351</v>
+        <v>212974.1157349154</v>
       </c>
       <c r="G6" t="n">
-        <v>213008.853660351</v>
+        <v>212974.1157349154</v>
       </c>
       <c r="H6" t="n">
-        <v>213008.8536603508</v>
+        <v>212974.1157349154</v>
       </c>
       <c r="I6" t="n">
-        <v>213008.8536603511</v>
+        <v>212974.1157349152</v>
       </c>
       <c r="J6" t="n">
-        <v>45403.67585036864</v>
+        <v>45368.93792493278</v>
       </c>
       <c r="K6" t="n">
-        <v>213008.8536603511</v>
+        <v>212974.1157349154</v>
       </c>
       <c r="L6" t="n">
-        <v>164714.8836521605</v>
+        <v>164680.1457267245</v>
       </c>
       <c r="M6" t="n">
-        <v>127953.8257248392</v>
+        <v>127919.0877994033</v>
       </c>
       <c r="N6" t="n">
-        <v>213008.853660351</v>
+        <v>212974.1157349153</v>
       </c>
       <c r="O6" t="n">
-        <v>213008.8536603508</v>
+        <v>212974.1157349154</v>
       </c>
       <c r="P6" t="n">
-        <v>213008.8536603511</v>
+        <v>212974.1157349153</v>
       </c>
     </row>
   </sheetData>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26975,22 +26975,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
         <v>341.306832697356</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145.7641951338996</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>223.6265015739123</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>46.33994901133232</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>160.6394605699398</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>60.8679284193783</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>335.9130152020548</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>195.8716165526665</v>
+        <v>230.2521599297741</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>156.7039017604264</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>312.3423365497559</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>35.22031886117364</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>166.4676525328792</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,19 +31841,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,16 +31862,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>531.8166820790245</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>223.6976288294628</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>171.5999003578894</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>183.7183104822601</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,13 +33266,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>538.1718564803244</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>502.5232631188761</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>536.3866168795495</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>535.8585467435948</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,25 +34781,25 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>592.5148541563236</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>341.8791195350533</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>436.6197581489557</v>
+        <v>412.0358695391849</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35036,7 +35036,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>393.2623022991504</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>81.10138438501835</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>29.46586643587111</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191328</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>45.87687150790109</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>406.8301443969911</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>368.5488557045459</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>405.0449047962162</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>393.2623022991504</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
